--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="338">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4464,1017 +4464,1620 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>335</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4AB35-5313-437C-B672-780DFC9E5603}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1218,7 +1219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1540,18 +1541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1573,16 +1574,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1593,16 +1596,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1613,16 +1618,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1666,16 +1673,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1686,16 +1695,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1706,16 +1717,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1737,16 +1750,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1757,16 +1772,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1792,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1786,16 +1803,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1806,34 +1825,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1844,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1866,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1877,16 +1902,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1897,34 +1924,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1946,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1979,16 +2012,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2021,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2043,16 +2078,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2063,16 +2100,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2094,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2105,25 +2144,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>45</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>46</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -2134,25 +2177,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2163,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2172,16 +2219,18 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2192,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2203,16 +2252,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -2223,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2234,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -2245,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -2256,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -2267,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2287,7 +2338,7 @@
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -2298,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -2309,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -2320,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -2342,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -2364,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -2375,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -2386,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2395,7 +2446,7 @@
       </c>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -2406,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -2415,7 +2466,7 @@
       </c>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -2426,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -2437,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -2446,7 +2497,7 @@
       </c>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -2457,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -2468,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -2479,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -2490,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2501,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2512,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -2523,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -2545,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -2554,7 +2605,7 @@
       </c>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2565,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2576,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -2587,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -2596,7 +2647,7 @@
       </c>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2607,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2616,7 +2667,7 @@
       </c>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -2627,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -2636,7 +2687,7 @@
       </c>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -2647,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -2658,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -2667,7 +2718,7 @@
       </c>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -2678,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>90</v>
       </c>
@@ -2689,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -2698,7 +2749,7 @@
       </c>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -2707,7 +2758,7 @@
       </c>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -2718,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -2729,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -2740,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -2749,7 +2800,7 @@
       </c>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -2760,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -2769,7 +2820,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -2780,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>74</v>
       </c>
@@ -2791,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2802,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -2813,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>100</v>
       </c>
@@ -2824,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>101</v>
       </c>
@@ -2833,7 +2884,7 @@
       </c>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -2844,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2855,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -2866,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -2877,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>105</v>
       </c>
@@ -2886,7 +2937,7 @@
       </c>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -2897,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>107</v>
       </c>
@@ -2908,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -2919,52 +2970,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>109</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>110</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>111</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>112</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>4</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -2973,16 +3034,18 @@
       </c>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>113</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -2991,7 +3054,7 @@
       </c>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>115</v>
       </c>
@@ -3000,16 +3063,18 @@
       </c>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>116</v>
       </c>
@@ -3018,115 +3083,139 @@
       </c>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>54</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
       </c>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>117</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
       </c>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>118</v>
       </c>
       <c r="B146" s="3">
         <v>1</v>
       </c>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>119</v>
       </c>
       <c r="B147" s="3">
         <v>1</v>
       </c>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>120</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
       </c>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" s="3">
         <v>1</v>
       </c>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>121</v>
       </c>
       <c r="B150" s="3">
         <v>1</v>
       </c>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>122</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>123</v>
       </c>
       <c r="B152" s="3">
         <v>1</v>
       </c>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>124</v>
       </c>
       <c r="B153" s="3">
         <v>1</v>
       </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>121</v>
       </c>
       <c r="B154" s="3">
         <v>1</v>
       </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="3">
         <v>1</v>
       </c>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>125</v>
       </c>
@@ -3135,43 +3224,51 @@
       </c>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>126</v>
       </c>
       <c r="B157" s="3">
         <v>1</v>
       </c>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>127</v>
       </c>
       <c r="B158" s="3">
         <v>1</v>
       </c>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" s="3">
         <v>1</v>
       </c>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="3">
         <v>1</v>
       </c>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -3180,43 +3277,51 @@
       </c>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
       </c>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>129</v>
       </c>
       <c r="B163" s="3">
         <v>1</v>
       </c>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>130</v>
       </c>
       <c r="B164" s="3">
         <v>1</v>
       </c>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>131</v>
       </c>
       <c r="B165" s="3">
         <v>1</v>
       </c>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -3225,43 +3330,51 @@
       </c>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="3">
         <v>1</v>
       </c>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>133</v>
       </c>
       <c r="B168" s="3">
         <v>1</v>
       </c>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>134</v>
       </c>
       <c r="B169" s="3">
         <v>1</v>
       </c>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>135</v>
       </c>
       <c r="B170" s="3">
         <v>1</v>
       </c>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -3270,16 +3383,18 @@
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>137</v>
       </c>
       <c r="B172" s="3">
         <v>1</v>
       </c>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>138</v>
       </c>
@@ -3288,7 +3403,7 @@
       </c>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>139</v>
       </c>
@@ -3297,25 +3412,29 @@
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>140</v>
       </c>
       <c r="B175" s="3">
         <v>1</v>
       </c>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>141</v>
       </c>
       <c r="B176" s="3">
         <v>1</v>
       </c>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>142</v>
       </c>
@@ -3324,7 +3443,7 @@
       </c>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -3333,16 +3452,18 @@
       </c>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>144</v>
       </c>
       <c r="B179" s="3">
         <v>1</v>
       </c>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -3351,43 +3472,51 @@
       </c>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>146</v>
       </c>
       <c r="B181" s="3">
         <v>1</v>
       </c>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>4</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
       </c>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>113</v>
       </c>
       <c r="B183" s="3">
         <v>1</v>
       </c>
-      <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>147</v>
       </c>
       <c r="B184" s="3">
         <v>1</v>
       </c>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -3396,16 +3525,18 @@
       </c>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>149</v>
       </c>
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>80</v>
       </c>
@@ -3414,34 +3545,40 @@
       </c>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>150</v>
       </c>
       <c r="B188" s="3">
         <v>1</v>
       </c>
-      <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>60</v>
       </c>
       <c r="B189" s="3">
         <v>1</v>
       </c>
-      <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>97</v>
       </c>
       <c r="B190" s="3">
         <v>1</v>
       </c>
-      <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>151</v>
       </c>
@@ -3450,16 +3587,18 @@
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>4</v>
       </c>
       <c r="B192" s="3">
         <v>1</v>
       </c>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>152</v>
       </c>
@@ -3468,25 +3607,29 @@
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>153</v>
       </c>
       <c r="B194" s="3">
         <v>1</v>
       </c>
-      <c r="C194" s="3"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>154</v>
       </c>
       <c r="B195" s="3">
         <v>1</v>
       </c>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>155</v>
       </c>
@@ -3495,79 +3638,95 @@
       </c>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>156</v>
       </c>
       <c r="B197" s="3">
         <v>1</v>
       </c>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>157</v>
       </c>
       <c r="B198" s="3">
         <v>1</v>
       </c>
-      <c r="C198" s="3"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>158</v>
       </c>
       <c r="B199" s="3">
         <v>1</v>
       </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>159</v>
       </c>
       <c r="B200" s="3">
         <v>1</v>
       </c>
-      <c r="C200" s="3"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>4</v>
       </c>
       <c r="B201" s="3">
         <v>1</v>
       </c>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>160</v>
       </c>
       <c r="B202" s="3">
         <v>1</v>
       </c>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>161</v>
       </c>
       <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>162</v>
       </c>
       <c r="B204" s="3">
         <v>1</v>
       </c>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>80</v>
       </c>
@@ -3576,79 +3735,95 @@
       </c>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>4</v>
       </c>
       <c r="B206" s="3">
         <v>1</v>
       </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>163</v>
       </c>
       <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="C207" s="3"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>164</v>
       </c>
       <c r="B208" s="3">
         <v>1</v>
       </c>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>165</v>
       </c>
       <c r="B209" s="3">
         <v>1</v>
       </c>
-      <c r="C209" s="3"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>113</v>
       </c>
       <c r="B210" s="3">
         <v>1</v>
       </c>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>8</v>
       </c>
       <c r="B211" s="3">
         <v>1</v>
       </c>
-      <c r="C211" s="3"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>166</v>
       </c>
       <c r="B212" s="3">
         <v>1</v>
       </c>
-      <c r="C212" s="3"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>167</v>
       </c>
       <c r="B213" s="3">
         <v>1</v>
       </c>
-      <c r="C213" s="3"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -3657,43 +3832,51 @@
       </c>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>168</v>
       </c>
       <c r="B215" s="3">
         <v>1</v>
       </c>
-      <c r="C215" s="3"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>24</v>
       </c>
       <c r="B216" s="3">
         <v>1</v>
       </c>
-      <c r="C216" s="3"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>113</v>
       </c>
       <c r="B217" s="3">
         <v>1</v>
       </c>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>97</v>
       </c>
       <c r="B218" s="3">
         <v>1</v>
       </c>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>169</v>
       </c>
@@ -3702,34 +3885,40 @@
       </c>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>170</v>
       </c>
       <c r="B220" s="3">
         <v>1</v>
       </c>
-      <c r="C220" s="3"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>171</v>
       </c>
       <c r="B221" s="3">
         <v>1</v>
       </c>
-      <c r="C221" s="3"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>172</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
       </c>
-      <c r="C222" s="3"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -3738,7 +3927,7 @@
       </c>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>173</v>
       </c>
@@ -3747,25 +3936,29 @@
       </c>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>25</v>
       </c>
       <c r="B225" s="3">
         <v>1</v>
       </c>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>162</v>
       </c>
       <c r="B226" s="3">
         <v>1</v>
       </c>
-      <c r="C226" s="3"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>174</v>
       </c>
@@ -3774,16 +3967,18 @@
       </c>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>175</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
       </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>176</v>
       </c>
@@ -3792,25 +3987,29 @@
       </c>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>41</v>
       </c>
       <c r="B230" s="3">
         <v>1</v>
       </c>
-      <c r="C230" s="3"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>81</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
       </c>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>177</v>
       </c>
@@ -3819,7 +4018,7 @@
       </c>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>178</v>
       </c>
@@ -3828,43 +4027,51 @@
       </c>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>19</v>
       </c>
       <c r="B234" s="3">
         <v>1</v>
       </c>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>179</v>
       </c>
       <c r="B235" s="3">
         <v>1</v>
       </c>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>180</v>
       </c>
       <c r="B236" s="3">
         <v>1</v>
       </c>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>181</v>
       </c>
       <c r="B237" s="3">
         <v>1</v>
       </c>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>182</v>
       </c>
@@ -3873,70 +4080,84 @@
       </c>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>152</v>
       </c>
       <c r="B239" s="3">
         <v>1</v>
       </c>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>183</v>
       </c>
       <c r="B240" s="3">
         <v>1</v>
       </c>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>19</v>
       </c>
       <c r="B241" s="3">
         <v>1</v>
       </c>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>184</v>
       </c>
       <c r="B242" s="3">
         <v>1</v>
       </c>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>142</v>
       </c>
       <c r="B243" s="3">
         <v>1</v>
       </c>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>185</v>
       </c>
       <c r="B244" s="3">
         <v>1</v>
       </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>186</v>
       </c>
       <c r="B245" s="3">
         <v>1</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -3945,61 +4166,73 @@
       </c>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>187</v>
       </c>
       <c r="B247" s="3">
         <v>1</v>
       </c>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>188</v>
       </c>
       <c r="B248" s="3">
         <v>1</v>
       </c>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>189</v>
       </c>
       <c r="B249" s="3">
         <v>1</v>
       </c>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>190</v>
       </c>
       <c r="B250" s="3">
         <v>1</v>
       </c>
-      <c r="C250" s="3"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>191</v>
       </c>
       <c r="B251" s="3">
         <v>1</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>192</v>
       </c>
       <c r="B252" s="3">
         <v>1</v>
       </c>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>193</v>
       </c>
@@ -4008,70 +4241,84 @@
       </c>
       <c r="C253" s="3"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>194</v>
       </c>
       <c r="B254" s="3">
         <v>1</v>
       </c>
-      <c r="C254" s="3"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>8</v>
       </c>
       <c r="B255" s="3">
         <v>1</v>
       </c>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>195</v>
       </c>
       <c r="B256" s="3">
         <v>1</v>
       </c>
-      <c r="C256" s="3"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>196</v>
       </c>
       <c r="B257" s="3">
         <v>1</v>
       </c>
-      <c r="C257" s="3"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>4</v>
       </c>
       <c r="B258" s="3">
         <v>1</v>
       </c>
-      <c r="C258" s="3"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>131</v>
       </c>
       <c r="B259" s="3">
         <v>1</v>
       </c>
-      <c r="C259" s="3"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>113</v>
       </c>
       <c r="B260" s="3">
         <v>1</v>
       </c>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>197</v>
       </c>
@@ -4080,7 +4327,7 @@
       </c>
       <c r="C261" s="3"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>198</v>
       </c>
@@ -4089,16 +4336,18 @@
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>199</v>
       </c>
       <c r="B263" s="3">
         <v>1</v>
       </c>
-      <c r="C263" s="3"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>200</v>
       </c>
@@ -4107,88 +4356,106 @@
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>201</v>
       </c>
       <c r="B265" s="3">
         <v>1</v>
       </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>131</v>
       </c>
       <c r="B266" s="3">
         <v>1</v>
       </c>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>202</v>
       </c>
       <c r="B267" s="3">
         <v>1</v>
       </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>25</v>
       </c>
       <c r="B268" s="3">
         <v>1</v>
       </c>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>165</v>
       </c>
       <c r="B269" s="3">
         <v>1</v>
       </c>
-      <c r="C269" s="3"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>110</v>
       </c>
       <c r="B270" s="3">
         <v>1</v>
       </c>
-      <c r="C270" s="3"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>203</v>
       </c>
       <c r="B271" s="3">
         <v>1</v>
       </c>
-      <c r="C271" s="3"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>87</v>
       </c>
       <c r="B272" s="3">
         <v>1</v>
       </c>
-      <c r="C272" s="3"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>204</v>
       </c>
       <c r="B273" s="3">
         <v>1</v>
       </c>
-      <c r="C273" s="3"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>205</v>
       </c>
@@ -4197,16 +4464,18 @@
       </c>
       <c r="C274" s="3"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>206</v>
       </c>
       <c r="B275" s="3">
         <v>1</v>
       </c>
-      <c r="C275" s="3"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>207</v>
       </c>
@@ -4215,16 +4484,18 @@
       </c>
       <c r="C276" s="3"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>140</v>
       </c>
       <c r="B277" s="3">
         <v>1</v>
       </c>
-      <c r="C277" s="3"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>46</v>
       </c>
@@ -4233,97 +4504,117 @@
       </c>
       <c r="C278" s="3"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>24</v>
       </c>
       <c r="B279" s="3">
         <v>1</v>
       </c>
-      <c r="C279" s="3"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>208</v>
       </c>
       <c r="B280" s="3">
         <v>1</v>
       </c>
-      <c r="C280" s="3"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>113</v>
       </c>
       <c r="B281" s="3">
         <v>1</v>
       </c>
-      <c r="C281" s="3"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>209</v>
       </c>
       <c r="B282" s="3">
         <v>1</v>
       </c>
-      <c r="C282" s="3"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>210</v>
       </c>
       <c r="B283" s="3">
         <v>1</v>
       </c>
-      <c r="C283" s="3"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>110</v>
       </c>
       <c r="B284" s="3">
         <v>1</v>
       </c>
-      <c r="C284" s="3"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>80</v>
       </c>
       <c r="B285" s="3">
         <v>1</v>
       </c>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>211</v>
       </c>
       <c r="B286" s="3">
         <v>1</v>
       </c>
-      <c r="C286" s="3"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>212</v>
       </c>
       <c r="B287" s="3">
         <v>1</v>
       </c>
-      <c r="C287" s="3"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>85</v>
       </c>
       <c r="B288" s="3">
         <v>1</v>
       </c>
-      <c r="C288" s="3"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>213</v>
       </c>
@@ -4345,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -4354,7 +4645,7 @@
       </c>
       <c r="C291" s="3"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>214</v>
       </c>
@@ -4365,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>63</v>
       </c>
@@ -4376,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>46</v>
       </c>
@@ -4385,7 +4676,7 @@
       </c>
       <c r="C294" s="3"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>215</v>
       </c>
@@ -4396,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>129</v>
       </c>
@@ -4405,7 +4696,7 @@
       </c>
       <c r="C296" s="3"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -4414,7 +4705,7 @@
       </c>
       <c r="C297" s="3"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>93</v>
       </c>
@@ -4425,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>164</v>
       </c>
@@ -4436,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>45</v>
       </c>
@@ -4445,7 +4736,7 @@
       </c>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>216</v>
       </c>
@@ -4466,13 +4757,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A186" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
@@ -4480,7 +4774,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4488,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -4496,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4504,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -4512,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -4520,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4536,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -4544,7 +4838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -4552,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -4560,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -4568,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -4576,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4584,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -4600,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -4608,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4616,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>227</v>
       </c>
@@ -4624,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -4632,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -4640,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>229</v>
       </c>
@@ -4648,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -4656,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -4664,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -4672,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -4680,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -4688,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -4696,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4704,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -4712,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -4720,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>236</v>
       </c>
@@ -4728,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -4736,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -4744,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -4752,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -4760,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4768,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4776,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -4784,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>241</v>
       </c>
@@ -4792,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -4800,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -4808,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -4816,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -4824,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>245</v>
       </c>
@@ -4832,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -4840,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>247</v>
       </c>
@@ -4848,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -4856,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -4864,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4872,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4880,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -4888,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -4896,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>251</v>
       </c>
@@ -4904,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>252</v>
       </c>
@@ -4912,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -4920,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4928,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>253</v>
       </c>
@@ -4936,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -4952,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -4960,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -4968,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -4976,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -4984,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -4992,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -5000,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -5008,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -5016,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -5024,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>256</v>
       </c>
@@ -5032,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -5040,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -5048,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>259</v>
       </c>
@@ -5056,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -5064,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -5072,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>169</v>
       </c>
@@ -5080,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -5088,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -5096,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -5104,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>263</v>
       </c>
@@ -5112,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -5120,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -5128,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -5136,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -5144,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -5152,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -5160,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -5168,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -5176,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -5184,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -5192,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -5200,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -5208,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -5216,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>274</v>
       </c>
@@ -5224,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -5232,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -5240,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -5248,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>277</v>
       </c>
@@ -5256,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>278</v>
       </c>
@@ -5264,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>279</v>
       </c>
@@ -5272,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>280</v>
       </c>
@@ -5280,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -5288,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -5296,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>283</v>
       </c>
@@ -5304,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>284</v>
       </c>
@@ -5312,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>285</v>
       </c>
@@ -5320,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>286</v>
       </c>
@@ -5328,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -5336,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -5344,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -5352,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -5360,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>289</v>
       </c>
@@ -5368,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>290</v>
       </c>
@@ -5376,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>291</v>
       </c>
@@ -5384,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -5392,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -5400,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -5408,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>293</v>
       </c>
@@ -5416,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>294</v>
       </c>
@@ -5424,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5432,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -5440,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -5448,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -5456,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>296</v>
       </c>
@@ -5464,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -5472,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -5488,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -5496,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -5504,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>298</v>
       </c>
@@ -5512,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>299</v>
       </c>
@@ -5520,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>300</v>
       </c>
@@ -5528,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -5536,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -5544,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -5552,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>302</v>
       </c>
@@ -5560,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>303</v>
       </c>
@@ -5576,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5584,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>110</v>
       </c>
@@ -5592,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>304</v>
       </c>
@@ -5600,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -5608,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>305</v>
       </c>
@@ -5616,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -5624,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -5632,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -5640,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -5648,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>307</v>
       </c>
@@ -5656,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>302</v>
       </c>
@@ -5664,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -5672,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -5680,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -5688,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>311</v>
       </c>
@@ -5696,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -5704,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5712,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -5720,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -5728,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>129</v>
       </c>
@@ -5736,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>140</v>
       </c>
@@ -5744,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>313</v>
       </c>
@@ -5752,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -5760,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -5768,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>314</v>
       </c>
@@ -5776,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -5784,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -5792,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>246</v>
       </c>
@@ -5800,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -5808,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -5816,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>316</v>
       </c>
@@ -5824,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>74</v>
       </c>
@@ -5832,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -5840,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -5848,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>317</v>
       </c>
@@ -5856,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -5864,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>223</v>
       </c>
@@ -5872,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>319</v>
       </c>
@@ -5880,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -5888,7 +6182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -5896,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>320</v>
       </c>
@@ -5904,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>321</v>
       </c>
@@ -5912,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -5920,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>322</v>
       </c>
@@ -5928,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>323</v>
       </c>
@@ -5936,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>324</v>
       </c>
@@ -5944,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -5952,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>140</v>
       </c>
@@ -5960,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>325</v>
       </c>
@@ -5968,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -5976,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>326</v>
       </c>
@@ -5984,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -5992,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>327</v>
       </c>
@@ -6000,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>328</v>
       </c>
@@ -6008,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>329</v>
       </c>
@@ -6016,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>330</v>
       </c>
@@ -6024,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>331</v>
       </c>
@@ -6032,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>332</v>
       </c>
@@ -6040,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>333</v>
       </c>
@@ -6048,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -6056,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>334</v>
       </c>
@@ -6064,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>140</v>
       </c>
@@ -6072,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>335</v>
       </c>

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4AB35-5313-437C-B672-780DFC9E5603}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE7E24-19EB-47B6-B206-245A46BFEE78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="65" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2336,7 +2336,9 @@
       <c r="B72" s="3">
         <v>1</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -2444,7 +2446,9 @@
       <c r="B82" s="3">
         <v>1</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -2464,7 +2468,9 @@
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -2495,7 +2501,9 @@
       <c r="B87" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -2603,7 +2611,9 @@
       <c r="B97" s="3">
         <v>1</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
@@ -2645,7 +2655,9 @@
       <c r="B101" s="3">
         <v>1</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
@@ -2665,7 +2677,9 @@
       <c r="B103" s="3">
         <v>1</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
@@ -2685,7 +2699,9 @@
       <c r="B105" s="3">
         <v>1</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -2716,7 +2732,9 @@
       <c r="B108" s="3">
         <v>1</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -2747,7 +2765,9 @@
       <c r="B111" s="3">
         <v>1</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -2756,7 +2776,9 @@
       <c r="B112" s="3">
         <v>1</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
@@ -2798,7 +2820,9 @@
       <c r="B116" s="3">
         <v>1</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
@@ -2882,7 +2906,9 @@
       <c r="B124" s="3">
         <v>1</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
@@ -2935,7 +2961,9 @@
       <c r="B129" s="3">
         <v>1</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
@@ -3032,7 +3060,9 @@
       <c r="B138" s="3">
         <v>1</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
@@ -3052,7 +3082,9 @@
       <c r="B140" s="3">
         <v>1</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -3061,7 +3093,9 @@
       <c r="B141" s="3">
         <v>1</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
@@ -3081,7 +3115,9 @@
       <c r="B143" s="3">
         <v>1</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -3222,7 +3258,9 @@
       <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
@@ -3275,7 +3313,9 @@
       <c r="B161" s="3">
         <v>1</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
@@ -3328,7 +3368,9 @@
       <c r="B166" s="3">
         <v>1</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
@@ -3401,7 +3443,9 @@
       <c r="B173" s="3">
         <v>1</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -3441,7 +3485,9 @@
       <c r="B177" s="3">
         <v>1</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
@@ -3450,7 +3496,9 @@
       <c r="B178" s="3">
         <v>1</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
@@ -3470,7 +3518,9 @@
       <c r="B180" s="3">
         <v>1</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
@@ -3523,7 +3573,9 @@
       <c r="B185" s="3">
         <v>1</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
@@ -3543,7 +3595,9 @@
       <c r="B187" s="3">
         <v>1</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
@@ -3636,7 +3690,9 @@
       <c r="B196" s="3">
         <v>1</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
@@ -3830,7 +3886,9 @@
       <c r="B214" s="3">
         <v>1</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
@@ -3883,7 +3941,9 @@
       <c r="B219" s="3">
         <v>1</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
@@ -3925,7 +3985,9 @@
       <c r="B223" s="3">
         <v>1</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
@@ -3934,7 +3996,9 @@
       <c r="B224" s="3">
         <v>1</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
@@ -3965,7 +4029,9 @@
       <c r="B227" s="3">
         <v>1</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
@@ -3985,7 +4051,9 @@
       <c r="B229" s="3">
         <v>1</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
@@ -4016,7 +4084,9 @@
       <c r="B232" s="3">
         <v>1</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
@@ -4025,7 +4095,9 @@
       <c r="B233" s="3">
         <v>1</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
@@ -4078,7 +4150,9 @@
       <c r="B238" s="3">
         <v>1</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
@@ -4164,7 +4238,9 @@
       <c r="B246" s="3">
         <v>1</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
@@ -4239,7 +4315,9 @@
       <c r="B253" s="3">
         <v>1</v>
       </c>
-      <c r="C253" s="3"/>
+      <c r="C253" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
@@ -4325,7 +4403,9 @@
       <c r="B261" s="3">
         <v>1</v>
       </c>
-      <c r="C261" s="3"/>
+      <c r="C261" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
@@ -4462,7 +4542,9 @@
       <c r="B274" s="3">
         <v>1</v>
       </c>
-      <c r="C274" s="3"/>
+      <c r="C274" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
@@ -4482,7 +4564,9 @@
       <c r="B276" s="3">
         <v>1</v>
       </c>
-      <c r="C276" s="3"/>
+      <c r="C276" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
@@ -4502,7 +4586,9 @@
       <c r="B278" s="3">
         <v>1</v>
       </c>
-      <c r="C278" s="3"/>
+      <c r="C278" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
@@ -4643,7 +4729,9 @@
       <c r="B291" s="3">
         <v>1</v>
       </c>
-      <c r="C291" s="3"/>
+      <c r="C291" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
@@ -4674,7 +4762,9 @@
       <c r="B294" s="3">
         <v>1</v>
       </c>
-      <c r="C294" s="3"/>
+      <c r="C294" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
@@ -4694,7 +4784,9 @@
       <c r="B296" s="3">
         <v>1</v>
       </c>
-      <c r="C296" s="3"/>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
@@ -4703,7 +4795,9 @@
       <c r="B297" s="3">
         <v>1</v>
       </c>
-      <c r="C297" s="3"/>
+      <c r="C297" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
@@ -4734,7 +4828,9 @@
       <c r="B300" s="3">
         <v>1</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE7E24-19EB-47B6-B206-245A46BFEE78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="24160" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1541,18 +1540,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="65" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView topLeftCell="A275" zoomScale="133" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1792,7 +1791,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2219,7 +2218,7 @@
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>82</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>90</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>91</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -2835,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -2844,7 +2843,7 @@
       </c>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>74</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>98</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>100</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>101</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>102</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>105</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>107</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>109</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>110</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>111</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>112</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>113</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>115</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>116</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>54</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>117</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>121</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>122</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>124</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>121</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>125</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>126</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>127</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>129</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>130</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>131</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>133</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>134</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>135</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -3425,7 +3424,7 @@
       </c>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>137</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>138</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>139</v>
       </c>
@@ -3456,7 +3455,7 @@
       </c>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>140</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>141</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>142</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>146</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>113</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>147</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -3577,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>149</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>80</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>150</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>97</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>151</v>
       </c>
@@ -3641,7 +3640,7 @@
       </c>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>152</v>
       </c>
@@ -3661,7 +3660,7 @@
       </c>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>154</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>155</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>156</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>157</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>158</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>159</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>160</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>161</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>162</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>80</v>
       </c>
@@ -3791,7 +3790,7 @@
       </c>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>163</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>164</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>165</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>113</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>167</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>168</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>113</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>97</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>169</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>170</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>171</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>172</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>173</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>162</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>174</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>175</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>176</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>177</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>178</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>179</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>180</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>181</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>182</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>152</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>183</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>184</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>142</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>185</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>186</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>37</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>187</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>188</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>189</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>190</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>191</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>192</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>193</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>194</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>195</v>
       </c>
@@ -4352,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>196</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>131</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>113</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>197</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>198</v>
       </c>
@@ -4416,7 +4415,7 @@
       </c>
       <c r="C262" s="3"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>199</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>200</v>
       </c>
@@ -4436,7 +4435,7 @@
       </c>
       <c r="C264" s="3"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>201</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>131</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>202</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>165</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>110</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>203</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>87</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>204</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>205</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>206</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>207</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>140</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>46</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>24</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>208</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>113</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>209</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>210</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>110</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>80</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>211</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>212</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>85</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>213</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>214</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>63</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>46</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>215</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>129</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>93</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>164</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>45</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>216</v>
       </c>
@@ -4853,16 +4852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScale="75" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="134" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -4934,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>227</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>229</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>233</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>236</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>240</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>241</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>245</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>247</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>251</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>252</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>253</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>108</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>256</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>258</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>259</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>169</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>263</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>265</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>266</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>269</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>274</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>275</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>277</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>278</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>279</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>280</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>281</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>283</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>284</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>285</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>286</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>289</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>290</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>291</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>292</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>293</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>294</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>295</v>
       </c>
@@ -5830,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>296</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>184</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>298</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>299</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>300</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>302</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>303</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>110</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>304</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>305</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>306</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>307</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>302</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>309</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>311</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>129</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>140</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>313</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>314</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>246</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>316</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>74</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>317</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>223</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>319</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>118</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>320</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>321</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>24</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>322</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>323</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>324</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -6342,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>140</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>325</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>326</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>35</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>327</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>328</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>329</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>330</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>331</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>332</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>333</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>334</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>140</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>335</v>
       </c>

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F337D8C-1E4F-46CF-90BF-8E2D1C05539F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A7C5C-253D-48BB-8C3E-856ACD690650}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="24165" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -2276,6 +2276,9 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -2287,6 +2290,9 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2298,6 +2304,9 @@
       <c r="C55" s="3">
         <v>0</v>
       </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2309,6 +2318,9 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2320,6 +2332,9 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2331,6 +2346,9 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2353,6 +2371,9 @@
       <c r="C60" s="3">
         <v>0</v>
       </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2376,6 +2397,9 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2387,6 +2411,9 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2398,6 +2425,9 @@
       <c r="C64" s="3">
         <v>1</v>
       </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2409,6 +2439,9 @@
       <c r="C65" s="3">
         <v>0</v>
       </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2420,6 +2453,9 @@
       <c r="C66" s="3">
         <v>0</v>
       </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -2431,6 +2467,9 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -2442,6 +2481,9 @@
       <c r="C68" s="3">
         <v>0</v>
       </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -2508,6 +2550,9 @@
       <c r="C74" s="3">
         <v>0</v>
       </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2519,6 +2564,9 @@
       <c r="C75" s="3">
         <v>0</v>
       </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2610,6 +2658,9 @@
       <c r="C83" s="3">
         <v>0</v>
       </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2621,6 +2672,9 @@
       <c r="C84" s="3">
         <v>0</v>
       </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2632,6 +2686,9 @@
       <c r="C85" s="3">
         <v>0</v>
       </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2698,6 +2755,9 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -2720,6 +2780,9 @@
       <c r="C93" s="3">
         <v>0</v>
       </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -2990,6 +3053,9 @@
       <c r="C117" s="3">
         <v>0</v>
       </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -3035,6 +3101,9 @@
       <c r="C121" s="3">
         <v>1</v>
       </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -3057,6 +3126,9 @@
       <c r="C123" s="3">
         <v>1</v>
       </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3068,6 +3140,9 @@
       <c r="C124" s="3">
         <v>0</v>
       </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3090,6 +3165,9 @@
       <c r="C126" s="3">
         <v>1</v>
       </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -3113,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -3124,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -3135,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>106</v>
       </c>
@@ -3146,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>107</v>
       </c>
@@ -3157,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -3168,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>109</v>
       </c>
@@ -3179,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>110</v>
       </c>
@@ -3190,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -3201,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3289,11 @@
       <c r="C137" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3222,8 +3303,11 @@
       <c r="C138" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -3233,8 +3317,11 @@
       <c r="C139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3245,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -3256,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -3267,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -3278,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -3289,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -3300,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -3310,8 +3397,11 @@
       <c r="C146" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3322,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -3333,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3343,8 +3433,11 @@
       <c r="C149" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>120</v>
       </c>
@@ -3355,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -3366,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -3377,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -3388,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>120</v>
       </c>
@@ -3399,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3502,11 @@
       <c r="C155" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>124</v>
       </c>
@@ -3421,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>125</v>
       </c>
@@ -3432,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -3443,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3453,8 +3549,11 @@
       <c r="C159" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3486,6 +3585,9 @@
       <c r="C162" s="3">
         <v>1</v>
       </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -3519,6 +3621,9 @@
       <c r="C165" s="3">
         <v>0</v>
       </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -4177,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -4188,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>161</v>
       </c>
@@ -4199,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>173</v>
       </c>
@@ -4209,8 +4314,11 @@
       <c r="C227" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>174</v>
       </c>
@@ -4221,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>175</v>
       </c>
@@ -4232,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -4243,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>80</v>
       </c>
@@ -4254,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>176</v>
       </c>
@@ -4265,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>177</v>
       </c>
@@ -4276,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -4287,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -4298,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -4309,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -4320,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>181</v>
       </c>
@@ -4331,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -4342,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>182</v>
       </c>
@@ -4886,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -4896,8 +5004,11 @@
       <c r="C289" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>212</v>
       </c>
@@ -4908,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>139</v>
       </c>
@@ -4919,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>213</v>
       </c>
@@ -4930,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -4941,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>45</v>
       </c>
@@ -4952,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>214</v>
       </c>
@@ -4963,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>128</v>
       </c>
@@ -4974,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -4985,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -4996,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>163</v>
       </c>
@@ -5007,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -5018,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>215</v>
       </c>

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\CD_Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A7C5C-253D-48BB-8C3E-856ACD690650}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24165" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="460" windowWidth="16620" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="339">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1192,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1203,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,7 +1224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1544,18 +1546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="142.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="4" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="142.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="4" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1950,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2115,7 +2117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2387,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -3116,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>101</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>106</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>107</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>109</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>110</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>120</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>120</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>124</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>125</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>128</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>129</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>130</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>131</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>133</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>135</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>136</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>137</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>138</v>
       </c>
@@ -3726,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>139</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>140</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>141</v>
       </c>
@@ -3759,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>142</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>143</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>112</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>146</v>
       </c>
@@ -3836,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -3858,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>149</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>96</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>150</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>151</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>152</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>155</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>158</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>160</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>161</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -4070,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>162</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>163</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>164</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>112</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>167</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>112</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>96</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>168</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>169</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>170</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>171</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>172</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>161</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>173</v>
       </c>
@@ -4318,7 +4320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>174</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>175</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>80</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>176</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -4417,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>181</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>182</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>183</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>141</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>184</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>185</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>36</v>
       </c>
@@ -4527,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>186</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>189</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>190</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>191</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>192</v>
       </c>
@@ -4604,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>193</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>194</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>195</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>130</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>112</v>
       </c>
@@ -4684,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>196</v>
       </c>
@@ -4695,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>197</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>198</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>199</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>200</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>130</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>201</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>164</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>109</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>202</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>86</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>203</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>204</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>205</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>206</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>139</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>45</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>207</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>112</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>208</v>
       </c>
@@ -4928,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>209</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>109</v>
       </c>
@@ -4950,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>210</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>211</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>212</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>139</v>
       </c>
@@ -5030,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>213</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>45</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>214</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>128</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -5107,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>163</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>215</v>
       </c>
@@ -5148,1623 +5150,2226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A182" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>217</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>218</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>219</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>220</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>221</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>222</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>223</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>224</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>120</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>130</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>225</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>226</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>227</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>180</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>228</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>229</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>231</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>232</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>233</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>234</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>235</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>236</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>237</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>238</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>239</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>154</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>240</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>241</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>242</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>243</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>195</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>244</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>245</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>246</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>247</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>248</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>249</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>109</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>250</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>251</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>252</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>253</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>109</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>24</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>254</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>182</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>107</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>255</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>256</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>257</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>258</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>259</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>168</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>260</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>261</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>262</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>45</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>33</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>263</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>264</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>265</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>79</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>266</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>267</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>268</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>269</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>270</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>271</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>272</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>273</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>274</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>275</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>276</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>277</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>278</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>279</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>280</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>281</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>282</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>283</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>284</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>285</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>45</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>286</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>44</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>287</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>288</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>289</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>290</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>291</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>47</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>292</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>293</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>204</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>294</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>161</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>73</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>295</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>109</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>6</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>296</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>183</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>297</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>298</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>299</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>164</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>289</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>300</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>301</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>302</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>109</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>303</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>107</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>304</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>31</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>305</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>245</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>47</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>306</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>301</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>307</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>308</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>309</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>310</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>168</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>311</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>128</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>139</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>312</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>164</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>309</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>313</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>40</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>245</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>314</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>139</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>315</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>73</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>316</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>317</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>222</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>318</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>84</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>117</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>319</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>320</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>23</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>321</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>322</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>323</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>26</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>139</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>324</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>3</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>325</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>34</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>326</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>327</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>328</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>329</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>330</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>331</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>332</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>24</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>333</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>139</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>334</v>
       </c>
       <c r="B201">
         <v>1</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tweets_nike_201809042210.xlsx
+++ b/tweets_nike_201809042210.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D2BB7-E5EB-4E68-9365-31C753094C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="460" windowWidth="16620" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="465" windowWidth="16620" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1546,18 +1547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="4" width="1.5" customWidth="1"/>
+    <col min="1" max="1" width="142.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>70</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>91</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>101</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>105</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>106</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>107</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>109</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>110</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>111</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>114</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>53</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>120</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>120</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>124</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>125</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>127</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>128</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>129</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>130</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>131</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>133</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>135</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>136</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>138</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>139</v>
       </c>
@@ -3738,8 +3739,11 @@
       <c r="C175" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>140</v>
       </c>
@@ -3749,8 +3753,11 @@
       <c r="C176" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>141</v>
       </c>
@@ -3760,8 +3767,11 @@
       <c r="C177" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>142</v>
       </c>
@@ -3771,8 +3781,11 @@
       <c r="C178" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>143</v>
       </c>
@@ -3782,8 +3795,11 @@
       <c r="C179" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -3793,8 +3809,11 @@
       <c r="C180" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -3804,8 +3823,11 @@
       <c r="C181" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -3815,8 +3837,11 @@
       <c r="C182" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>112</v>
       </c>
@@ -3827,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>146</v>
       </c>
@@ -3838,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>147</v>
       </c>
@@ -3849,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -3860,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -3871,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>149</v>
       </c>
@@ -3882,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>59</v>
       </c>
@@ -3893,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>96</v>
       </c>
@@ -3904,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>150</v>
       </c>
@@ -3916,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -3927,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>151</v>
       </c>
@@ -3939,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>152</v>
       </c>
@@ -3950,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -3961,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>154</v>
       </c>
@@ -3972,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>155</v>
       </c>
@@ -3983,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -3994,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -4005,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>158</v>
       </c>
@@ -4016,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -4027,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>159</v>
       </c>
@@ -4038,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>160</v>
       </c>
@@ -4049,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>161</v>
       </c>
@@ -4060,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>79</v>
       </c>
@@ -4072,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -4083,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>162</v>
       </c>
@@ -4094,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>163</v>
       </c>
@@ -4105,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>164</v>
       </c>
@@ -4116,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>112</v>
       </c>
@@ -4127,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4141,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -4152,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>166</v>
       </c>
@@ -4163,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>167</v>
       </c>
@@ -4185,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>112</v>
       </c>
@@ -4207,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>96</v>
       </c>
@@ -4218,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>168</v>
       </c>
@@ -4229,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>169</v>
       </c>
@@ -4240,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>170</v>
       </c>
@@ -4251,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>171</v>
       </c>
@@ -4262,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4273,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>172</v>
       </c>
@@ -4284,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>24</v>
       </c>
@@ -4295,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>161</v>
       </c>
@@ -4306,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>173</v>
       </c>
@@ -4320,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>174</v>
       </c>
@@ -4331,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>175</v>
       </c>
@@ -4342,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>40</v>
       </c>
@@ -4353,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>80</v>
       </c>
@@ -4364,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>176</v>
       </c>
@@ -4375,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>177</v>
       </c>
@@ -4386,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -4397,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>178</v>
       </c>
@@ -4408,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>179</v>
       </c>
@@ -4419,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -4430,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>181</v>
       </c>
@@ -4441,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -4452,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>182</v>
       </c>
@@ -4463,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>183</v>
       </c>
@@ -4485,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>141</v>
       </c>
@@ -4496,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>184</v>
       </c>
@@ -4507,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>185</v>
       </c>
@@ -4518,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>36</v>
       </c>
@@ -4529,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>186</v>
       </c>
@@ -4540,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>187</v>
       </c>
@@ -4551,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>188</v>
       </c>
@@ -4562,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>189</v>
       </c>
@@ -4573,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>190</v>
       </c>
@@ -4584,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>191</v>
       </c>
@@ -4595,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>192</v>
       </c>
@@ -4606,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>193</v>
       </c>
@@ -4617,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>194</v>
       </c>
@@ -4642,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>195</v>
       </c>
@@ -4653,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>130</v>
       </c>
@@ -4675,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>112</v>
       </c>
@@ -4686,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>196</v>
       </c>
@@ -4697,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>197</v>
       </c>
@@ -4709,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>198</v>
       </c>
@@ -4720,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>199</v>
       </c>
@@ -4732,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>200</v>
       </c>
@@ -4743,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>130</v>
       </c>
@@ -4753,8 +4778,11 @@
       <c r="C266" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>201</v>
       </c>
@@ -4765,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -4775,8 +4803,11 @@
       <c r="C268" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>164</v>
       </c>
@@ -4786,8 +4817,11 @@
       <c r="C269" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>109</v>
       </c>
@@ -4797,8 +4831,11 @@
       <c r="C270" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>202</v>
       </c>
@@ -4809,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>86</v>
       </c>
@@ -4819,8 +4856,11 @@
       <c r="C272" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>203</v>
       </c>
@@ -4830,8 +4870,11 @@
       <c r="C273" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>204</v>
       </c>
@@ -4842,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>205</v>
       </c>
@@ -4853,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>206</v>
       </c>
@@ -4863,8 +4906,11 @@
       <c r="C276" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>139</v>
       </c>
@@ -4874,8 +4920,11 @@
       <c r="C277" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>45</v>
       </c>
@@ -4885,8 +4934,11 @@
       <c r="C278" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -4896,8 +4948,11 @@
       <c r="C279" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>207</v>
       </c>
@@ -4908,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>112</v>
       </c>
@@ -4919,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>208</v>
       </c>
@@ -4930,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>209</v>
       </c>
@@ -4941,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>109</v>
       </c>
@@ -4951,8 +5006,11 @@
       <c r="C284" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>79</v>
       </c>
@@ -4962,8 +5020,11 @@
       <c r="C285" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>210</v>
       </c>
@@ -4973,8 +5034,11 @@
       <c r="C286" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>211</v>
       </c>
@@ -4984,8 +5048,11 @@
       <c r="C287" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>84</v>
       </c>
@@ -4995,8 +5062,11 @@
       <c r="C288" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>212</v>
       </c>
@@ -5020,8 +5090,11 @@
       <c r="C290" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>139</v>
       </c>
@@ -5031,8 +5104,11 @@
       <c r="C291" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>213</v>
       </c>
@@ -5042,8 +5118,11 @@
       <c r="C292" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>62</v>
       </c>
@@ -5053,8 +5132,11 @@
       <c r="C293" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>45</v>
       </c>
@@ -5064,8 +5146,11 @@
       <c r="C294" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>214</v>
       </c>
@@ -5075,8 +5160,11 @@
       <c r="C295" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>128</v>
       </c>
@@ -5086,8 +5174,11 @@
       <c r="C296" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -5097,8 +5188,11 @@
       <c r="C297" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -5109,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>163</v>
       </c>
@@ -5120,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>44</v>
       </c>
@@ -5131,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>215</v>
       </c>
@@ -5152,16 +5246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.83203125" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -5172,7 +5266,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5183,7 +5277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -5194,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -5205,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -5216,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -5227,7 +5321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -5249,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -5260,7 +5354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>221</v>
       </c>
@@ -5271,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -5282,7 +5376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -5293,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -5304,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -5315,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -5326,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -5337,7 +5431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -5348,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -5359,7 +5453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>226</v>
       </c>
@@ -5370,7 +5464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -5381,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -5392,7 +5486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>228</v>
       </c>
@@ -5403,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -5414,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>230</v>
       </c>
@@ -5425,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -5436,7 +5530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -5447,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>232</v>
       </c>
@@ -5458,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -5469,7 +5563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -5491,7 +5585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -5502,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>235</v>
       </c>
@@ -5513,7 +5607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -5524,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>237</v>
       </c>
@@ -5535,7 +5629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -5546,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -5557,7 +5651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5568,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5579,7 +5673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5590,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>240</v>
       </c>
@@ -5601,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -5612,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>242</v>
       </c>
@@ -5623,7 +5717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -5634,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>195</v>
       </c>
@@ -5645,7 +5739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>244</v>
       </c>
@@ -5656,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>245</v>
       </c>
@@ -5667,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>246</v>
       </c>
@@ -5678,7 +5772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>247</v>
       </c>
@@ -5689,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>248</v>
       </c>
@@ -5700,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -5711,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5722,7 +5816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -5733,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -5744,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -5755,7 +5849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>251</v>
       </c>
@@ -5766,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -5777,7 +5871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -5788,7 +5882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>252</v>
       </c>
@@ -5799,7 +5893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5810,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -5821,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -5832,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5843,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -5854,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5865,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -5876,7 +5970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -5887,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -5898,7 +5992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -5909,7 +6003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -5920,7 +6014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>255</v>
       </c>
@@ -5931,7 +6025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>256</v>
       </c>
@@ -5942,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>257</v>
       </c>
@@ -5953,7 +6047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>258</v>
       </c>
@@ -5964,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -5975,7 +6069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>259</v>
       </c>
@@ -5986,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -5997,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6008,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>260</v>
       </c>
@@ -6019,7 +6113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>261</v>
       </c>
@@ -6030,7 +6124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -6041,7 +6135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -6052,7 +6146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -6063,7 +6157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>263</v>
       </c>
@@ -6074,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>264</v>
       </c>
@@ -6085,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>265</v>
       </c>
@@ -6096,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -6107,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>266</v>
       </c>
@@ -6118,7 +6212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -6129,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -6140,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>269</v>
       </c>
@@ -6151,7 +6245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -6162,7 +6256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>271</v>
       </c>
@@ -6173,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>272</v>
       </c>
@@ -6184,7 +6278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -6195,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>274</v>
       </c>
@@ -6206,7 +6300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -6217,7 +6311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>275</v>
       </c>
@@ -6228,7 +6322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>276</v>
       </c>
@@ -6239,7 +6333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>277</v>
       </c>
@@ -6250,7 +6344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>278</v>
       </c>
@@ -6261,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -6272,7 +6366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -6283,7 +6377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>281</v>
       </c>
@@ -6294,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -6305,7 +6399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>283</v>
       </c>
@@ -6316,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>284</v>
       </c>
@@ -6327,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>285</v>
       </c>
@@ -6338,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -6349,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>286</v>
       </c>
@@ -6360,7 +6454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -6371,7 +6465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -6382,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -6393,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>289</v>
       </c>
@@ -6404,7 +6498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>290</v>
       </c>
@@ -6415,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>291</v>
       </c>
@@ -6426,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6437,7 +6531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>47</v>
       </c>
@@ -6448,7 +6542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>292</v>
       </c>
@@ -6459,7 +6553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>293</v>
       </c>
@@ -6470,7 +6564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>204</v>
       </c>
@@ -6481,7 +6575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>294</v>
       </c>
@@ -6492,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -6503,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>73</v>
       </c>
@@ -6514,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>295</v>
       </c>
@@ -6525,7 +6619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -6536,7 +6630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -6547,7 +6641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -6558,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>183</v>
       </c>
@@ -6569,7 +6663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6580,7 +6674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>297</v>
       </c>
@@ -6591,7 +6685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>298</v>
       </c>
@@ -6602,7 +6696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>299</v>
       </c>
@@ -6613,7 +6707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -6624,7 +6718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -6635,7 +6729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>300</v>
       </c>
@@ -6646,7 +6740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>301</v>
       </c>
@@ -6657,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -6668,7 +6762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>302</v>
       </c>
@@ -6679,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -6690,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>109</v>
       </c>
@@ -6701,7 +6795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>303</v>
       </c>
@@ -6712,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>107</v>
       </c>
@@ -6723,7 +6817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>304</v>
       </c>
@@ -6734,7 +6828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -6745,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>305</v>
       </c>
@@ -6756,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>245</v>
       </c>
@@ -6767,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>47</v>
       </c>
@@ -6778,7 +6872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -6789,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>301</v>
       </c>
@@ -6800,7 +6894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>307</v>
       </c>
@@ -6811,7 +6905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -6822,7 +6916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>309</v>
       </c>
@@ -6833,7 +6927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>310</v>
       </c>
@@ -6844,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -6855,7 +6949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -6877,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -6888,7 +6982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>128</v>
       </c>
@@ -6899,7 +6993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>139</v>
       </c>
@@ -6910,7 +7004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>312</v>
       </c>
@@ -6921,7 +7015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -6932,7 +7026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>309</v>
       </c>
@@ -6943,7 +7037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>313</v>
       </c>
@@ -6954,7 +7048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -6965,7 +7059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -6976,7 +7070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>245</v>
       </c>
@@ -6987,7 +7081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -6998,7 +7092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>139</v>
       </c>
@@ -7009,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>315</v>
       </c>
@@ -7020,7 +7114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>73</v>
       </c>
@@ -7031,7 +7125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -7042,7 +7136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -7053,7 +7147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>316</v>
       </c>
@@ -7064,7 +7158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>317</v>
       </c>
@@ -7075,7 +7169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -7086,7 +7180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>318</v>
       </c>
@@ -7097,7 +7191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>84</v>
       </c>
@@ -7108,7 +7202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>117</v>
       </c>
@@ -7119,7 +7213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>319</v>
       </c>
@@ -7130,7 +7224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -7141,7 +7235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -7152,7 +7246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>321</v>
       </c>
@@ -7163,7 +7257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>322</v>
       </c>
@@ -7174,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>323</v>
       </c>
@@ -7185,7 +7279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -7196,7 +7290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>139</v>
       </c>
@@ -7207,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>324</v>
       </c>
@@ -7218,7 +7312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -7229,7 +7323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>325</v>
       </c>
@@ -7240,7 +7334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>34</v>
       </c>
@@ -7251,7 +7345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>326</v>
       </c>
@@ -7262,7 +7356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>327</v>
       </c>
@@ -7273,7 +7367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>328</v>
       </c>
@@ -7284,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>329</v>
       </c>
@@ -7295,7 +7389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>330</v>
       </c>
@@ -7306,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>331</v>
       </c>
@@ -7317,7 +7411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>332</v>
       </c>
@@ -7328,7 +7422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -7339,7 +7433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>333</v>
       </c>
@@ -7350,7 +7444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>139</v>
       </c>
@@ -7361,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>334</v>
       </c>
